--- a/data/bank/银行中观数据库.xlsx
+++ b/data/bank/银行中观数据库.xlsx
@@ -581,7 +581,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
